--- a/result/extreme_weather/basic_statistics/city_2/basic_statistics.xlsx
+++ b/result/extreme_weather/basic_statistics/city_2/basic_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,392 +483,426 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>TEMP</t>
+          <t>RH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155.78</v>
+        <v>3.37</v>
       </c>
       <c r="C2" t="n">
-        <v>25.47</v>
+        <v>0.96</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.42</v>
+        <v>-0.1</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.99</v>
+        <v>-0.55</v>
       </c>
       <c r="F2" t="n">
-        <v>98.42</v>
+        <v>0.79</v>
       </c>
       <c r="G2" t="n">
-        <v>106.16</v>
+        <v>1.46</v>
       </c>
       <c r="H2" t="n">
-        <v>158.99</v>
+        <v>3.33</v>
       </c>
       <c r="I2" t="n">
-        <v>190</v>
+        <v>5.11</v>
       </c>
       <c r="J2" t="n">
-        <v>194.54</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>DEWP</t>
+          <t>TEMP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.23</v>
+        <v>155.78</v>
       </c>
       <c r="C3" t="n">
-        <v>27.31</v>
+        <v>25.47</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5</v>
+        <v>-0.42</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.79</v>
+        <v>-0.99</v>
       </c>
       <c r="F3" t="n">
-        <v>61.7</v>
+        <v>98.42</v>
       </c>
       <c r="G3" t="n">
-        <v>80.5</v>
+        <v>106.16</v>
       </c>
       <c r="H3" t="n">
-        <v>141.8</v>
+        <v>158.99</v>
       </c>
       <c r="I3" t="n">
-        <v>171.68</v>
+        <v>190</v>
       </c>
       <c r="J3" t="n">
-        <v>173.84</v>
+        <v>194.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>DEWP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.39</v>
+        <v>59.02</v>
       </c>
       <c r="C4" t="n">
-        <v>0.84</v>
+        <v>15.17</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.82</v>
+        <v>-0.79</v>
       </c>
       <c r="F4" t="n">
-        <v>99.54000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="G4" t="n">
-        <v>100.15</v>
+        <v>26.94</v>
       </c>
       <c r="H4" t="n">
-        <v>101.32</v>
+        <v>61</v>
       </c>
       <c r="I4" t="n">
-        <v>103.06</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>103.68</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>SLP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71.92</v>
+        <v>101.39</v>
       </c>
       <c r="C5" t="n">
-        <v>44.01</v>
+        <v>0.84</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.01</v>
+        <v>0.32</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.98</v>
+        <v>-0.82</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05</v>
+        <v>100.15</v>
       </c>
       <c r="H5" t="n">
-        <v>98.70999999999999</v>
+        <v>101.32</v>
       </c>
       <c r="I5" t="n">
-        <v>99.91</v>
+        <v>103.06</v>
       </c>
       <c r="J5" t="n">
-        <v>99.98</v>
+        <v>103.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>VISIB</t>
+          <t>STP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.44</v>
+        <v>71.92</v>
       </c>
       <c r="C6" t="n">
-        <v>3.61</v>
+        <v>44.01</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.41</v>
+        <v>-1.01</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.73</v>
+        <v>-0.98</v>
       </c>
       <c r="F6" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.06</v>
+        <v>0.05</v>
       </c>
       <c r="H6" t="n">
-        <v>11.75</v>
+        <v>98.70999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>16.57</v>
+        <v>99.91</v>
       </c>
       <c r="J6" t="n">
-        <v>17.22</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WDSP</t>
+          <t>VISIB</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.1</v>
+        <v>11.44</v>
       </c>
       <c r="C7" t="n">
-        <v>0.96</v>
+        <v>3.61</v>
       </c>
       <c r="D7" t="n">
-        <v>0.98</v>
+        <v>-0.41</v>
       </c>
       <c r="E7" t="n">
-        <v>0.91</v>
+        <v>-0.73</v>
       </c>
       <c r="F7" t="n">
-        <v>0.36</v>
+        <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>0.77</v>
+        <v>4.06</v>
       </c>
       <c r="H7" t="n">
-        <v>1.85</v>
+        <v>11.75</v>
       </c>
       <c r="I7" t="n">
-        <v>4.4</v>
+        <v>16.57</v>
       </c>
       <c r="J7" t="n">
-        <v>6.02</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MXSPD</t>
+          <t>WDSP</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.74</v>
+        <v>2.1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.92</v>
+        <v>0.96</v>
       </c>
       <c r="D8" t="n">
-        <v>0.57</v>
+        <v>0.98</v>
       </c>
       <c r="E8" t="n">
-        <v>0.13</v>
+        <v>0.91</v>
       </c>
       <c r="F8" t="n">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
       <c r="G8" t="n">
-        <v>2.01</v>
+        <v>0.77</v>
       </c>
       <c r="H8" t="n">
-        <v>4.99</v>
+        <v>1.85</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
-        <v>13.02</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GUST</t>
+          <t>MXSPD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.97</v>
+        <v>4.74</v>
       </c>
       <c r="C9" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08</v>
+        <v>0.57</v>
       </c>
       <c r="E9" t="n">
-        <v>0.77</v>
+        <v>0.13</v>
       </c>
       <c r="F9" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H9" t="n">
         <v>4.99</v>
       </c>
-      <c r="G9" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11.07</v>
-      </c>
       <c r="I9" t="n">
-        <v>15.31</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>18.98</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MAX</t>
+          <t>GUST</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.08</v>
+        <v>10.97</v>
       </c>
       <c r="C10" t="n">
-        <v>28.13</v>
+        <v>2.04</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.61</v>
+        <v>0.08</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.64</v>
+        <v>0.77</v>
       </c>
       <c r="F10" t="n">
-        <v>106.7</v>
+        <v>4.99</v>
       </c>
       <c r="G10" t="n">
-        <v>115.52</v>
+        <v>6.91</v>
       </c>
       <c r="H10" t="n">
-        <v>180.32</v>
+        <v>11.07</v>
       </c>
       <c r="I10" t="n">
-        <v>212.72</v>
+        <v>15.31</v>
       </c>
       <c r="J10" t="n">
-        <v>216.68</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAX</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>140.69</v>
+        <v>175.08</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5</v>
+        <v>28.13</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.32</v>
+        <v>-0.61</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.16</v>
+        <v>-0.64</v>
       </c>
       <c r="F11" t="n">
-        <v>79.88</v>
+        <v>106.7</v>
       </c>
       <c r="G11" t="n">
-        <v>95.36</v>
+        <v>115.52</v>
       </c>
       <c r="H11" t="n">
-        <v>142.79</v>
+        <v>180.32</v>
       </c>
       <c r="I11" t="n">
-        <v>173.84</v>
+        <v>212.72</v>
       </c>
       <c r="J11" t="n">
-        <v>180.32</v>
+        <v>216.68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>PRCP</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01</v>
+        <v>140.69</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02</v>
+        <v>25.5</v>
       </c>
       <c r="D12" t="n">
-        <v>6.76</v>
+        <v>-0.32</v>
       </c>
       <c r="E12" t="n">
-        <v>66.16</v>
+        <v>-1.16</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>79.88</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>95.36</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>142.79</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05</v>
+        <v>173.84</v>
       </c>
       <c r="J12" t="n">
-        <v>0.22</v>
+        <v>180.32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>PRCP</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="E13" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>SNDP</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result/extreme_weather/basic_statistics/city_2/basic_statistics.xlsx
+++ b/result/extreme_weather/basic_statistics/city_2/basic_statistics.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.37</v>
+        <v>828.28</v>
       </c>
       <c r="C2" t="n">
-        <v>0.96</v>
+        <v>249.58</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1</v>
+        <v>-0.34</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.55</v>
+        <v>-0.52</v>
       </c>
       <c r="F2" t="n">
-        <v>0.79</v>
+        <v>193.84</v>
       </c>
       <c r="G2" t="n">
-        <v>1.46</v>
+        <v>300.02</v>
       </c>
       <c r="H2" t="n">
-        <v>3.33</v>
+        <v>856.61</v>
       </c>
       <c r="I2" t="n">
-        <v>5.11</v>
+        <v>1248.6</v>
       </c>
       <c r="J2" t="n">
-        <v>5.42</v>
+        <v>1313.45</v>
       </c>
     </row>
     <row r="3">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.78</v>
+        <v>20.43</v>
       </c>
       <c r="C3" t="n">
-        <v>25.47</v>
+        <v>7.86</v>
       </c>
       <c r="D3" t="n">
         <v>-0.42</v>
@@ -533,19 +533,19 @@
         <v>-0.99</v>
       </c>
       <c r="F3" t="n">
-        <v>98.42</v>
+        <v>2.72</v>
       </c>
       <c r="G3" t="n">
-        <v>106.16</v>
+        <v>5.11</v>
       </c>
       <c r="H3" t="n">
-        <v>158.99</v>
+        <v>21.42</v>
       </c>
       <c r="I3" t="n">
-        <v>190</v>
+        <v>30.99</v>
       </c>
       <c r="J3" t="n">
-        <v>194.54</v>
+        <v>32.39</v>
       </c>
     </row>
     <row r="4">
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>175.08</v>
+        <v>26.38</v>
       </c>
       <c r="C11" t="n">
-        <v>28.13</v>
+        <v>8.68</v>
       </c>
       <c r="D11" t="n">
         <v>-0.61</v>
@@ -805,19 +805,19 @@
         <v>-0.64</v>
       </c>
       <c r="F11" t="n">
-        <v>106.7</v>
+        <v>5.28</v>
       </c>
       <c r="G11" t="n">
-        <v>115.52</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>180.32</v>
+        <v>28</v>
       </c>
       <c r="I11" t="n">
-        <v>212.72</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
-        <v>216.68</v>
+        <v>39.22</v>
       </c>
     </row>
     <row r="12">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>140.69</v>
+        <v>15.77</v>
       </c>
       <c r="C12" t="n">
-        <v>25.5</v>
+        <v>7.87</v>
       </c>
       <c r="D12" t="n">
         <v>-0.32</v>
@@ -839,19 +839,19 @@
         <v>-1.16</v>
       </c>
       <c r="F12" t="n">
-        <v>79.88</v>
+        <v>-3</v>
       </c>
       <c r="G12" t="n">
-        <v>95.36</v>
+        <v>1.78</v>
       </c>
       <c r="H12" t="n">
-        <v>142.79</v>
+        <v>16.42</v>
       </c>
       <c r="I12" t="n">
-        <v>173.84</v>
+        <v>26</v>
       </c>
       <c r="J12" t="n">
-        <v>180.32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">

--- a/result/extreme_weather/basic_statistics/city_2/basic_statistics.xlsx
+++ b/result/extreme_weather/basic_statistics/city_2/basic_statistics.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>828.28</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>249.58</v>
+        <v>15.34</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.34</v>
+        <v>-0.51</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.52</v>
+        <v>-0.3</v>
       </c>
       <c r="F2" t="n">
-        <v>193.84</v>
+        <v>25.46</v>
       </c>
       <c r="G2" t="n">
-        <v>300.02</v>
+        <v>38.92</v>
       </c>
       <c r="H2" t="n">
-        <v>856.61</v>
+        <v>74</v>
       </c>
       <c r="I2" t="n">
-        <v>1248.6</v>
+        <v>96.34</v>
       </c>
       <c r="J2" t="n">
-        <v>1313.45</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="3">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.02</v>
+        <v>15.01</v>
       </c>
       <c r="C4" t="n">
-        <v>15.17</v>
+        <v>8.43</v>
       </c>
       <c r="D4" t="n">
         <v>-0.5</v>
@@ -567,19 +567,19 @@
         <v>-0.79</v>
       </c>
       <c r="F4" t="n">
-        <v>16.5</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>26.94</v>
+        <v>-2.81</v>
       </c>
       <c r="H4" t="n">
-        <v>61</v>
+        <v>16.11</v>
       </c>
       <c r="I4" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33</v>
       </c>
       <c r="J4" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
